--- a/Code/Results/Cases/Case_7_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.21493848166733</v>
+        <v>21.58860960430498</v>
       </c>
       <c r="C2">
-        <v>13.63750164155477</v>
+        <v>11.00764720677882</v>
       </c>
       <c r="D2">
-        <v>2.638621049073318</v>
+        <v>4.902213275623616</v>
       </c>
       <c r="E2">
-        <v>6.116643979007712</v>
+        <v>7.263212649556887</v>
       </c>
       <c r="F2">
-        <v>36.87090400881428</v>
+        <v>24.69021987757133</v>
       </c>
       <c r="G2">
-        <v>2.116399935911915</v>
+        <v>2.095107075771975</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.689249178418267</v>
+        <v>5.630538703384827</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.685274850200146</v>
+        <v>7.360142882035873</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.5537340049402</v>
+        <v>12.47983367167985</v>
       </c>
       <c r="O2">
-        <v>27.83367770875894</v>
+        <v>18.29453460935137</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.67906022973484</v>
+        <v>20.23602117638054</v>
       </c>
       <c r="C3">
-        <v>12.68613301598508</v>
+        <v>10.48001619228208</v>
       </c>
       <c r="D3">
-        <v>2.595682806947696</v>
+        <v>4.819415569953297</v>
       </c>
       <c r="E3">
-        <v>6.146267767851434</v>
+        <v>7.29119695369321</v>
       </c>
       <c r="F3">
-        <v>35.92643610275277</v>
+        <v>24.27911528151773</v>
       </c>
       <c r="G3">
-        <v>2.126686784213771</v>
+        <v>2.100959973866042</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.746049034567072</v>
+        <v>5.688041194526206</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.505866133554156</v>
+        <v>7.164175896968058</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.83556302107969</v>
+        <v>12.64841082883484</v>
       </c>
       <c r="O3">
-        <v>27.20265323723277</v>
+        <v>18.0998163598599</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.70474248518254</v>
+        <v>19.3634345143338</v>
       </c>
       <c r="C4">
-        <v>12.07111466515492</v>
+        <v>10.14183831447969</v>
       </c>
       <c r="D4">
-        <v>2.569594172871267</v>
+        <v>4.769411320829384</v>
       </c>
       <c r="E4">
-        <v>6.165883461623983</v>
+        <v>7.31132331757711</v>
       </c>
       <c r="F4">
-        <v>35.37235111650902</v>
+        <v>24.04560723509457</v>
       </c>
       <c r="G4">
-        <v>2.13315861174168</v>
+        <v>2.104667607281979</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.782074359788314</v>
+        <v>5.724619583077707</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.397912125357732</v>
+        <v>7.043755259123742</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.01129561498308</v>
+        <v>12.75532774451504</v>
       </c>
       <c r="O4">
-        <v>26.83700383779649</v>
+        <v>17.9959375530105</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.30014292221786</v>
+        <v>18.99740969540113</v>
       </c>
       <c r="C5">
-        <v>11.81262373457689</v>
+        <v>10.0005530392647</v>
       </c>
       <c r="D5">
-        <v>2.559015555353135</v>
+        <v>4.749262888497754</v>
       </c>
       <c r="E5">
-        <v>6.174232191250298</v>
+        <v>7.320249960033881</v>
       </c>
       <c r="F5">
-        <v>35.15305240273759</v>
+        <v>23.95518363927498</v>
       </c>
       <c r="G5">
-        <v>2.135837285283717</v>
+        <v>2.106207835583928</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.797050119387291</v>
+        <v>5.739848301258954</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.354506516903489</v>
+        <v>6.994721767763553</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.08363593636942</v>
+        <v>12.79975664090361</v>
       </c>
       <c r="O5">
-        <v>26.69341490576458</v>
+        <v>17.95745878219527</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.23251386338542</v>
+        <v>18.93600627916125</v>
       </c>
       <c r="C6">
-        <v>11.76922354271998</v>
+        <v>9.97688609421937</v>
       </c>
       <c r="D6">
-        <v>2.55726171208861</v>
+        <v>4.745931622794488</v>
       </c>
       <c r="E6">
-        <v>6.175639846750252</v>
+        <v>7.321775571468851</v>
       </c>
       <c r="F6">
-        <v>35.11703024678555</v>
+        <v>23.94045374546548</v>
       </c>
       <c r="G6">
-        <v>2.136284636145002</v>
+        <v>2.106465380808259</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.799554828584954</v>
+        <v>5.742396596583503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.347335443140575</v>
+        <v>6.986584042307515</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.09569341076738</v>
+        <v>12.80718600123936</v>
       </c>
       <c r="O6">
-        <v>26.66989708908917</v>
+        <v>17.95129927871823</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.69931603751496</v>
+        <v>19.35854021441931</v>
       </c>
       <c r="C7">
-        <v>12.0676605465132</v>
+        <v>10.13994681826608</v>
       </c>
       <c r="D7">
-        <v>2.569451313303907</v>
+        <v>4.769138640971365</v>
       </c>
       <c r="E7">
-        <v>6.165994621816103</v>
+        <v>7.311440789801636</v>
       </c>
       <c r="F7">
-        <v>35.36936727955005</v>
+        <v>24.04436862941016</v>
       </c>
       <c r="G7">
-        <v>2.133194567031459</v>
+        <v>2.104688259662449</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.782275125366821</v>
+        <v>5.72482365226572</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.397324323581163</v>
+        <v>7.043093733344172</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.01226820841589</v>
+        <v>12.75592344537429</v>
       </c>
       <c r="O7">
-        <v>26.83504551095445</v>
+        <v>17.9954031416579</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.69201804843129</v>
+        <v>21.13104668848849</v>
       </c>
       <c r="C8">
-        <v>13.3158141148694</v>
+        <v>10.82872251178456</v>
       </c>
       <c r="D8">
-        <v>2.623748234282288</v>
+        <v>4.873502980115779</v>
       </c>
       <c r="E8">
-        <v>6.126559919817865</v>
+        <v>7.272241299408143</v>
       </c>
       <c r="F8">
-        <v>36.53989430437877</v>
+        <v>24.5445368397643</v>
       </c>
       <c r="G8">
-        <v>2.119915914997907</v>
+        <v>2.097101933779193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.708598779415976</v>
+        <v>5.650103436993337</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.622976262331639</v>
+        <v>7.292630279713381</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.65038287164924</v>
+        <v>12.53725231408316</v>
       </c>
       <c r="O8">
-        <v>27.61153750946361</v>
+        <v>18.22409059868133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.34238509623379</v>
+        <v>24.2687179701115</v>
       </c>
       <c r="C9">
-        <v>15.52342425792106</v>
+        <v>12.06326541672488</v>
       </c>
       <c r="D9">
-        <v>2.733254596904822</v>
+        <v>5.083947943349741</v>
       </c>
       <c r="E9">
-        <v>6.060729750718046</v>
+        <v>7.21943919175957</v>
       </c>
       <c r="F9">
-        <v>39.04031505904088</v>
+        <v>25.67575769523435</v>
       </c>
       <c r="G9">
-        <v>2.095002633336221</v>
+        <v>2.083096235014802</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.572957693812584</v>
+        <v>5.513529967631326</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.08166981229693</v>
+        <v>7.778615889020804</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.95954048579874</v>
+        <v>12.13544286115999</v>
       </c>
       <c r="O9">
-        <v>29.31010762376976</v>
+        <v>18.80046765501329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.86094572006274</v>
+        <v>26.46740749950774</v>
       </c>
       <c r="C10">
-        <v>17.00650758968981</v>
+        <v>12.89607162995809</v>
       </c>
       <c r="D10">
-        <v>2.816896529418301</v>
+        <v>5.241009213457272</v>
       </c>
       <c r="E10">
-        <v>6.019668147110167</v>
+        <v>7.196332224690434</v>
       </c>
       <c r="F10">
-        <v>41.00387749221044</v>
+        <v>26.59829918293178</v>
       </c>
       <c r="G10">
-        <v>2.077217598698542</v>
+        <v>2.073288595417664</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.478264037129612</v>
+        <v>5.419062734511206</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.427103616511518</v>
+        <v>8.130455356764028</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.45966031805587</v>
+        <v>11.85669294936892</v>
       </c>
       <c r="O10">
-        <v>30.66977672119331</v>
+        <v>19.30606433018976</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.97130946810606</v>
+        <v>27.41891277714938</v>
       </c>
       <c r="C11">
-        <v>17.65288550041313</v>
+        <v>13.25837761872623</v>
       </c>
       <c r="D11">
-        <v>2.855991708135761</v>
+        <v>5.312776562459487</v>
       </c>
       <c r="E11">
-        <v>6.002652556727348</v>
+        <v>7.189457363560421</v>
       </c>
       <c r="F11">
-        <v>41.92554349495122</v>
+        <v>27.0376378348475</v>
       </c>
       <c r="G11">
-        <v>2.06919705189876</v>
+        <v>2.068920067747583</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.436161259058511</v>
+        <v>5.377320297176134</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.585884608974878</v>
+        <v>8.288809033838698</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.2330023893785</v>
+        <v>11.73348465660241</v>
       </c>
       <c r="O11">
-        <v>31.31387819473861</v>
+        <v>19.55462230734963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.40762357245112</v>
+        <v>27.77185332109626</v>
       </c>
       <c r="C12">
-        <v>17.89375384767342</v>
+        <v>13.39317208311951</v>
       </c>
       <c r="D12">
-        <v>2.870980811349935</v>
+        <v>5.339982162109445</v>
       </c>
       <c r="E12">
-        <v>5.996456256652208</v>
+        <v>7.187396922179692</v>
       </c>
       <c r="F12">
-        <v>42.27877463694687</v>
+        <v>27.20680927701741</v>
       </c>
       <c r="G12">
-        <v>2.066165946886354</v>
+        <v>2.067278179419252</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.420349033403669</v>
+        <v>5.361687236506732</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.646239193686776</v>
+        <v>8.348487867045721</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.14719660517224</v>
+        <v>11.6873513428163</v>
       </c>
       <c r="O12">
-        <v>31.56160189647338</v>
+        <v>19.65146190400436</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.31230948251732</v>
+        <v>27.69616781971789</v>
       </c>
       <c r="C13">
-        <v>17.84204919736379</v>
+        <v>13.36424883747175</v>
       </c>
       <c r="D13">
-        <v>2.867743832003073</v>
+        <v>5.334121924009485</v>
       </c>
       <c r="E13">
-        <v>5.997779610341206</v>
+        <v>7.187816202123829</v>
       </c>
       <c r="F13">
-        <v>42.2025098018712</v>
+        <v>27.17025087834636</v>
       </c>
       <c r="G13">
-        <v>2.066818546311005</v>
+        <v>2.067631255556365</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.423748793341714</v>
+        <v>5.365046411934501</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.633230672589006</v>
+        <v>8.335648302851773</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.16567669283263</v>
+        <v>11.69726360111794</v>
       </c>
       <c r="O13">
-        <v>31.50807781119815</v>
+        <v>19.63048425915501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0055901074517</v>
+        <v>27.44809669127396</v>
       </c>
       <c r="C14">
-        <v>17.67277904973184</v>
+        <v>13.26951550320624</v>
       </c>
       <c r="D14">
-        <v>2.857220957512914</v>
+        <v>5.315014298333711</v>
       </c>
       <c r="E14">
-        <v>6.002137780802491</v>
+        <v>7.189276851671729</v>
       </c>
       <c r="F14">
-        <v>41.95451859174837</v>
+        <v>27.05149962452887</v>
       </c>
       <c r="G14">
-        <v>2.068947583129228</v>
+        <v>2.068784746491103</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.434857801883703</v>
+        <v>5.376030688785498</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.590845472556902</v>
+        <v>8.293724804980291</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.22594309380652</v>
+        <v>11.72967871847094</v>
       </c>
       <c r="O14">
-        <v>31.3341811567279</v>
+        <v>19.56253466985188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.82612553987126</v>
+        <v>27.29518825041061</v>
       </c>
       <c r="C15">
-        <v>17.56859341309881</v>
+        <v>13.21117511366591</v>
       </c>
       <c r="D15">
-        <v>2.850800532482535</v>
+        <v>5.303313599508808</v>
       </c>
       <c r="E15">
-        <v>6.004839725687932</v>
+        <v>7.190242852096151</v>
       </c>
       <c r="F15">
-        <v>41.80317068493572</v>
+        <v>26.9791254211368</v>
       </c>
       <c r="G15">
-        <v>2.070252348819234</v>
+        <v>2.069492874218898</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.441679199412046</v>
+        <v>5.382781428332263</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.564912855351398</v>
+        <v>8.268007022192728</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.26285867532888</v>
+        <v>11.74960223267136</v>
       </c>
       <c r="O15">
-        <v>31.22816620042159</v>
+        <v>19.52126862469157</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.78767543163745</v>
+        <v>26.40418784222924</v>
       </c>
       <c r="C16">
-        <v>16.96370994904567</v>
+        <v>12.8720589165345</v>
       </c>
       <c r="D16">
-        <v>2.814365430352341</v>
+        <v>5.23632398846912</v>
       </c>
       <c r="E16">
-        <v>6.020814281111335</v>
+        <v>7.196856381199869</v>
       </c>
       <c r="F16">
-        <v>40.9442261971484</v>
+        <v>26.56998101353824</v>
       </c>
       <c r="G16">
-        <v>2.077742840165492</v>
+        <v>2.073575877019564</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.481034407716946</v>
+        <v>5.421815206372569</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.416759035556074</v>
+        <v>8.120068667527853</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.47448099847251</v>
+        <v>11.86481772096091</v>
       </c>
       <c r="O16">
-        <v>30.62820887538792</v>
+        <v>19.29019809413436</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14160811051449</v>
+        <v>25.84436293288916</v>
       </c>
       <c r="C17">
-        <v>16.58550230853825</v>
+        <v>12.65976489928566</v>
       </c>
       <c r="D17">
-        <v>2.79230443889491</v>
+        <v>5.195297309995409</v>
       </c>
       <c r="E17">
-        <v>6.031045500222635</v>
+        <v>7.201858963286595</v>
       </c>
       <c r="F17">
-        <v>40.42464700020146</v>
+        <v>26.32400411184846</v>
       </c>
       <c r="G17">
-        <v>2.082353258112632</v>
+        <v>2.076103802668022</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.505420892407377</v>
+        <v>5.446074260403962</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.326283408873763</v>
+        <v>8.028846440691243</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.60443786047128</v>
+        <v>11.93642331958809</v>
       </c>
       <c r="O17">
-        <v>30.26679316955402</v>
+        <v>19.15323253959595</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.76667175503506</v>
+        <v>25.51747979207558</v>
       </c>
       <c r="C18">
-        <v>16.36529413806416</v>
+        <v>12.53610278312572</v>
       </c>
       <c r="D18">
-        <v>2.779711687264899</v>
+        <v>5.171730862384638</v>
       </c>
       <c r="E18">
-        <v>6.037086268333019</v>
+        <v>7.205077370447766</v>
       </c>
       <c r="F18">
-        <v>40.12846418346099</v>
+        <v>26.18437771423148</v>
       </c>
       <c r="G18">
-        <v>2.085011895590661</v>
+        <v>2.077566617483957</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.519539585056828</v>
+        <v>5.460143499861901</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.274398759042539</v>
+        <v>7.976219995583191</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.67926054554721</v>
+        <v>11.97794701195529</v>
       </c>
       <c r="O18">
-        <v>30.0613140431624</v>
+        <v>19.07619803589289</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63915031913832</v>
+        <v>25.40596104363445</v>
       </c>
       <c r="C19">
-        <v>16.29027152973961</v>
+        <v>12.49396653862301</v>
       </c>
       <c r="D19">
-        <v>2.77546354643231</v>
+        <v>5.163757534528341</v>
       </c>
       <c r="E19">
-        <v>6.039158146305284</v>
+        <v>7.206225048022658</v>
       </c>
       <c r="F19">
-        <v>40.02863657484825</v>
+        <v>26.13742164619092</v>
       </c>
       <c r="G19">
-        <v>2.085913353701913</v>
+        <v>2.078063445365601</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.524336031302672</v>
+        <v>5.464927134186087</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.25685843558424</v>
+        <v>7.958375840013056</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.70460947646487</v>
+        <v>11.99206413678001</v>
       </c>
       <c r="O19">
-        <v>29.99215053018394</v>
+        <v>19.050413569657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.21072788073518</v>
+        <v>25.90446241509611</v>
       </c>
       <c r="C20">
-        <v>16.62603866714127</v>
+        <v>12.68252522924599</v>
       </c>
       <c r="D20">
-        <v>2.794642685802668</v>
+        <v>5.199661587810899</v>
       </c>
       <c r="E20">
-        <v>6.029940166127178</v>
+        <v>7.201290989813789</v>
       </c>
       <c r="F20">
-        <v>40.479680490622</v>
+        <v>26.34999717842339</v>
       </c>
       <c r="G20">
-        <v>2.081861789809316</v>
+        <v>2.075833794955917</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.502815425793976</v>
+        <v>5.443479852360012</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.335898786113972</v>
+        <v>8.038573857687986</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.59059654656655</v>
+        <v>11.92876575939929</v>
       </c>
       <c r="O20">
-        <v>30.30501746318899</v>
+        <v>19.1676318545479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.0921795500015</v>
+        <v>27.52116062369405</v>
       </c>
       <c r="C21">
-        <v>17.72260225288471</v>
+        <v>13.29740633988986</v>
       </c>
       <c r="D21">
-        <v>2.860306473726292</v>
+        <v>5.320626017600636</v>
       </c>
       <c r="E21">
-        <v>6.00085090424985</v>
+        <v>7.188832925712248</v>
       </c>
       <c r="F21">
-        <v>42.02724388253514</v>
+        <v>27.08630385439337</v>
       </c>
       <c r="G21">
-        <v>2.068322101695683</v>
+        <v>2.06844561059734</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.431591330616329</v>
+        <v>5.372799646043957</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.603288879874418</v>
+        <v>8.306046828338072</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.20824140653429</v>
+        <v>11.72014336168869</v>
       </c>
       <c r="O21">
-        <v>31.38515394953059</v>
+        <v>19.58241904284826</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.37236989835608</v>
+        <v>28.53482894720941</v>
       </c>
       <c r="C22">
-        <v>18.41662268987992</v>
+        <v>13.68525593981966</v>
       </c>
       <c r="D22">
-        <v>2.90431715563211</v>
+        <v>5.39984451239248</v>
       </c>
       <c r="E22">
-        <v>5.983284458530933</v>
+        <v>7.183865248399041</v>
       </c>
       <c r="F22">
-        <v>43.06334557789062</v>
+        <v>27.58385359525973</v>
       </c>
       <c r="G22">
-        <v>2.059506507624572</v>
+        <v>2.063688640578094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.385802264101209</v>
+        <v>5.327618178585279</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.779373076506674</v>
+        <v>8.479171728821822</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.95845112002752</v>
+        <v>11.58684928469058</v>
       </c>
       <c r="O22">
-        <v>32.11342475895375</v>
+        <v>19.86935712909624</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.6924731610676</v>
+        <v>27.99771469838456</v>
       </c>
       <c r="C23">
-        <v>18.04822346727414</v>
+        <v>13.47954081283191</v>
       </c>
       <c r="D23">
-        <v>2.880714958530143</v>
+        <v>5.357554659125972</v>
       </c>
       <c r="E23">
-        <v>5.992524837474626</v>
+        <v>7.18621932779201</v>
       </c>
       <c r="F23">
-        <v>42.50804222077745</v>
+        <v>27.31681538627296</v>
       </c>
       <c r="G23">
-        <v>2.064209937270034</v>
+        <v>2.06622131854751</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.410174325750139</v>
+        <v>5.351640806694031</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.685272544519036</v>
+        <v>8.386938227676421</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.09178843705281</v>
+        <v>11.65770901342387</v>
       </c>
       <c r="O23">
-        <v>31.72263269251165</v>
+        <v>19.71474796138964</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.17948975129064</v>
+        <v>25.87730712006479</v>
       </c>
       <c r="C24">
-        <v>16.60772082454175</v>
+        <v>12.67224030145146</v>
       </c>
       <c r="D24">
-        <v>2.793585285296234</v>
+        <v>5.197688433156989</v>
       </c>
       <c r="E24">
-        <v>6.030439393925813</v>
+        <v>7.201546705760959</v>
       </c>
       <c r="F24">
-        <v>40.4547919774767</v>
+        <v>26.33824013873543</v>
       </c>
       <c r="G24">
-        <v>2.08208395727255</v>
+        <v>2.075955835850598</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.503993049542741</v>
+        <v>5.444652402792793</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.331551265299852</v>
+        <v>8.034176654782103</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.59685385974538</v>
+        <v>11.93222663179501</v>
       </c>
       <c r="O24">
-        <v>30.28772909478337</v>
+        <v>19.16111660528489</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.38335791459988</v>
+        <v>23.45654436848581</v>
       </c>
       <c r="C25">
-        <v>14.951167921276</v>
+        <v>11.74212972451962</v>
       </c>
       <c r="D25">
-        <v>2.7031776720684</v>
+        <v>5.026511087731881</v>
       </c>
       <c r="E25">
-        <v>6.077279592121388</v>
+        <v>7.231044479528348</v>
       </c>
       <c r="F25">
-        <v>38.34185516312824</v>
+        <v>25.35362068330559</v>
       </c>
       <c r="G25">
-        <v>2.101638091160458</v>
+        <v>2.086796745354202</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.608748386242132</v>
+        <v>5.549431180358753</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.956012859755572</v>
+        <v>7.64784753564713</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.14479129032137</v>
+        <v>12.24125706943089</v>
       </c>
       <c r="O25">
-        <v>28.83134045220597</v>
+        <v>18.63038394524917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.58860960430498</v>
+        <v>19.92057925004359</v>
       </c>
       <c r="C2">
-        <v>11.00764720677882</v>
+        <v>11.09599899732186</v>
       </c>
       <c r="D2">
-        <v>4.902213275623616</v>
+        <v>6.095998135386259</v>
       </c>
       <c r="E2">
-        <v>7.263212649556887</v>
+        <v>8.398175324871426</v>
       </c>
       <c r="F2">
-        <v>24.69021987757133</v>
+        <v>20.62957007934414</v>
       </c>
       <c r="G2">
-        <v>2.095107075771975</v>
+        <v>23.03865896501049</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.626667724777028</v>
       </c>
       <c r="J2">
-        <v>5.630538703384827</v>
+        <v>8.909540920712564</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.62427017048639</v>
       </c>
       <c r="L2">
-        <v>7.360142882035873</v>
+        <v>6.054211722048461</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.47983367167985</v>
+        <v>7.969280228341511</v>
       </c>
       <c r="O2">
-        <v>18.29453460935137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.43606153771343</v>
+      </c>
+      <c r="Q2">
+        <v>14.68165839770928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23602117638054</v>
+        <v>18.59872347184247</v>
       </c>
       <c r="C3">
-        <v>10.48001619228208</v>
+        <v>10.60989249836172</v>
       </c>
       <c r="D3">
-        <v>4.819415569953297</v>
+        <v>5.961304681301004</v>
       </c>
       <c r="E3">
-        <v>7.29119695369321</v>
+        <v>8.312388878547411</v>
       </c>
       <c r="F3">
-        <v>24.27911528151773</v>
+        <v>20.28506953895198</v>
       </c>
       <c r="G3">
-        <v>2.100959973866042</v>
+        <v>22.45333465960499</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.831056500469278</v>
       </c>
       <c r="J3">
-        <v>5.688041194526206</v>
+        <v>8.902444811550881</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.72579857706303</v>
       </c>
       <c r="L3">
-        <v>7.164175896968058</v>
+        <v>6.030051543525609</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.64841082883484</v>
+        <v>7.711947302308714</v>
       </c>
       <c r="O3">
-        <v>18.0998163598599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.47927274891629</v>
+      </c>
+      <c r="Q3">
+        <v>14.54854138495173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.3634345143338</v>
+        <v>17.73678007456815</v>
       </c>
       <c r="C4">
-        <v>10.14183831447969</v>
+        <v>10.29872860382586</v>
       </c>
       <c r="D4">
-        <v>4.769411320829384</v>
+        <v>5.877848379614426</v>
       </c>
       <c r="E4">
-        <v>7.31132331757711</v>
+        <v>8.259101686738086</v>
       </c>
       <c r="F4">
-        <v>24.04560723509457</v>
+        <v>20.08214235579621</v>
       </c>
       <c r="G4">
-        <v>2.104667607281979</v>
+        <v>22.10399230124147</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.961134944154786</v>
       </c>
       <c r="J4">
-        <v>5.724619583077707</v>
+        <v>8.902272471351196</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.79586761582427</v>
       </c>
       <c r="L4">
-        <v>7.043755259123742</v>
+        <v>6.014656885702204</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.75532774451504</v>
+        <v>7.549508885367848</v>
       </c>
       <c r="O4">
-        <v>17.9959375530105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.50864856881208</v>
+      </c>
+      <c r="Q4">
+        <v>14.47508880040199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.99740969540113</v>
+        <v>17.38343736168339</v>
       </c>
       <c r="C5">
-        <v>10.0005530392647</v>
+        <v>10.16884642728571</v>
       </c>
       <c r="D5">
-        <v>4.749262888497754</v>
+        <v>5.843685619948368</v>
       </c>
       <c r="E5">
-        <v>7.320249960033881</v>
+        <v>8.23723448966974</v>
       </c>
       <c r="F5">
-        <v>23.95518363927498</v>
+        <v>20.00165914498514</v>
       </c>
       <c r="G5">
-        <v>2.106207835583928</v>
+        <v>21.96431155714494</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.015310324457641</v>
       </c>
       <c r="J5">
-        <v>5.739848301258954</v>
+        <v>8.903229048285844</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.82629834043814</v>
       </c>
       <c r="L5">
-        <v>6.994721767763553</v>
+        <v>6.00823981006189</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.79975664090361</v>
+        <v>7.48226926940659</v>
       </c>
       <c r="O5">
-        <v>17.95745878219527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.52132228698329</v>
+      </c>
+      <c r="Q5">
+        <v>14.4472115472506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.93600627916125</v>
+        <v>17.32427236167812</v>
       </c>
       <c r="C6">
-        <v>9.97688609421937</v>
+        <v>10.14709714530324</v>
       </c>
       <c r="D6">
-        <v>4.745931622794488</v>
+        <v>5.838004717766291</v>
       </c>
       <c r="E6">
-        <v>7.321775571468851</v>
+        <v>8.233594329083418</v>
       </c>
       <c r="F6">
-        <v>23.94045374546548</v>
+        <v>19.98842983870225</v>
       </c>
       <c r="G6">
-        <v>2.106465380808259</v>
+        <v>21.94128380893854</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.024377039874679</v>
       </c>
       <c r="J6">
-        <v>5.742396596583503</v>
+        <v>8.90344915179959</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.83146280532941</v>
       </c>
       <c r="L6">
-        <v>6.986584042307515</v>
+        <v>6.007165505752656</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.80718600123936</v>
+        <v>7.471043281304937</v>
       </c>
       <c r="O6">
-        <v>17.95129927871823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.52346885005467</v>
+      </c>
+      <c r="Q6">
+        <v>14.44270579303329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.35854021441931</v>
+        <v>17.73192317125195</v>
       </c>
       <c r="C7">
-        <v>10.13994681826608</v>
+        <v>10.29698927966511</v>
       </c>
       <c r="D7">
-        <v>4.769138640971365</v>
+        <v>5.877388222252904</v>
       </c>
       <c r="E7">
-        <v>7.311440789801636</v>
+        <v>8.258807391530082</v>
       </c>
       <c r="F7">
-        <v>24.04436862941016</v>
+        <v>20.08104791725364</v>
       </c>
       <c r="G7">
-        <v>2.104688259662449</v>
+        <v>22.10209747371649</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.961860826183227</v>
       </c>
       <c r="J7">
-        <v>5.72482365226572</v>
+        <v>8.902281248492192</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.7962705014854</v>
       </c>
       <c r="L7">
-        <v>7.043093733344172</v>
+        <v>6.014570927908445</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.75592344537429</v>
+        <v>7.54860619999129</v>
       </c>
       <c r="O7">
-        <v>17.9954031416579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.50881666103894</v>
+      </c>
+      <c r="Q7">
+        <v>14.47470455582624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.13104668848849</v>
+        <v>19.4752152528152</v>
       </c>
       <c r="C8">
-        <v>10.82872251178456</v>
+        <v>10.93108522630906</v>
       </c>
       <c r="D8">
-        <v>4.873502980115779</v>
+        <v>6.049733437664896</v>
       </c>
       <c r="E8">
-        <v>7.272241299408143</v>
+        <v>8.368724815351475</v>
       </c>
       <c r="F8">
-        <v>24.5445368397643</v>
+        <v>20.5090333102639</v>
       </c>
       <c r="G8">
-        <v>2.097101933779193</v>
+        <v>22.83484627551327</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.696198947107225</v>
       </c>
       <c r="J8">
-        <v>5.650103436993337</v>
+        <v>8.906210442828529</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.65763175263342</v>
       </c>
       <c r="L8">
-        <v>7.292630279713381</v>
+        <v>6.045995874659781</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.53725231408316</v>
+        <v>7.881512578675966</v>
       </c>
       <c r="O8">
-        <v>18.22409059868133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.45036290005607</v>
+      </c>
+      <c r="Q8">
+        <v>14.63402582724906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.2687179701115</v>
+        <v>22.49693529754105</v>
       </c>
       <c r="C9">
-        <v>12.06326541672488</v>
+        <v>12.06979669612626</v>
       </c>
       <c r="D9">
-        <v>5.083947943349741</v>
+        <v>6.380221312554616</v>
       </c>
       <c r="E9">
-        <v>7.21943919175957</v>
+        <v>8.579323346532931</v>
       </c>
       <c r="F9">
-        <v>25.67575769523435</v>
+        <v>21.41410577878328</v>
       </c>
       <c r="G9">
-        <v>2.083096235014802</v>
+        <v>24.34466545777666</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.901791706636058</v>
       </c>
       <c r="J9">
-        <v>5.513529967631326</v>
+        <v>8.948239804277677</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.45022587485321</v>
       </c>
       <c r="L9">
-        <v>7.778615889020804</v>
+        <v>6.103304511830192</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.13544286115999</v>
+        <v>8.496392714618436</v>
       </c>
       <c r="O9">
-        <v>18.80046765501329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.35888576496703</v>
+      </c>
+      <c r="Q9">
+        <v>15.01315571851455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.46740749950774</v>
+        <v>24.43301835622592</v>
       </c>
       <c r="C10">
-        <v>12.89607162995809</v>
+        <v>12.86580621161209</v>
       </c>
       <c r="D10">
-        <v>5.241009213457272</v>
+        <v>6.580443379031717</v>
       </c>
       <c r="E10">
-        <v>7.196332224690434</v>
+        <v>8.668403908812003</v>
       </c>
       <c r="F10">
-        <v>26.59829918293178</v>
+        <v>22.00488834311783</v>
       </c>
       <c r="G10">
-        <v>2.073288595417664</v>
+        <v>25.34534757037565</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.222191704488358</v>
       </c>
       <c r="J10">
-        <v>5.419062734511206</v>
+        <v>8.976785441951318</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.29343104309969</v>
       </c>
       <c r="L10">
-        <v>8.130455356764028</v>
+        <v>6.130095667085053</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.85669294936892</v>
+        <v>8.84217277964461</v>
       </c>
       <c r="O10">
-        <v>19.30606433018976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.32355648842455</v>
+      </c>
+      <c r="Q10">
+        <v>15.27120480018035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.41891277714938</v>
+        <v>24.87588709245135</v>
       </c>
       <c r="C11">
-        <v>13.25837761872623</v>
+        <v>13.45203747465447</v>
       </c>
       <c r="D11">
-        <v>5.312776562459487</v>
+        <v>6.359421976201121</v>
       </c>
       <c r="E11">
-        <v>7.189457363560421</v>
+        <v>8.227883737001703</v>
       </c>
       <c r="F11">
-        <v>27.0376378348475</v>
+        <v>21.31825222050718</v>
       </c>
       <c r="G11">
-        <v>2.068920067747583</v>
+        <v>24.55911906980611</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.056287661205232</v>
       </c>
       <c r="J11">
-        <v>5.377320297176134</v>
+        <v>8.7779908616938</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.81442591966602</v>
       </c>
       <c r="L11">
-        <v>8.288809033838698</v>
+        <v>6.071788317887307</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.73348465660241</v>
+        <v>8.316391711208263</v>
       </c>
       <c r="O11">
-        <v>19.55462230734963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.46713588276083</v>
+      </c>
+      <c r="Q11">
+        <v>14.85508314929568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77185332109626</v>
+        <v>24.85323542762483</v>
       </c>
       <c r="C12">
-        <v>13.39317208311951</v>
+        <v>13.78866123076733</v>
       </c>
       <c r="D12">
-        <v>5.339982162109445</v>
+        <v>6.130691005547858</v>
       </c>
       <c r="E12">
-        <v>7.187396922179692</v>
+        <v>7.926599915485441</v>
       </c>
       <c r="F12">
-        <v>27.20680927701741</v>
+        <v>20.59510257937825</v>
       </c>
       <c r="G12">
-        <v>2.067278179419252</v>
+        <v>23.65902977647963</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.276709182194802</v>
       </c>
       <c r="J12">
-        <v>5.361687236506732</v>
+        <v>8.598398437456375</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.44026491161114</v>
       </c>
       <c r="L12">
-        <v>8.348487867045721</v>
+        <v>6.073304689338467</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.6873513428163</v>
+        <v>7.808079786814318</v>
       </c>
       <c r="O12">
-        <v>19.65146190400436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.60576774894566</v>
+      </c>
+      <c r="Q12">
+        <v>14.43616891713587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69616781971789</v>
+        <v>24.47099468128119</v>
       </c>
       <c r="C13">
-        <v>13.36424883747175</v>
+        <v>13.96113925870695</v>
       </c>
       <c r="D13">
-        <v>5.334121924009485</v>
+        <v>5.88006246715013</v>
       </c>
       <c r="E13">
-        <v>7.187816202123829</v>
+        <v>7.722376401561291</v>
       </c>
       <c r="F13">
-        <v>27.17025087834636</v>
+        <v>19.78957257539144</v>
       </c>
       <c r="G13">
-        <v>2.067631255556365</v>
+        <v>22.59475796815562</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.575868248198995</v>
       </c>
       <c r="J13">
-        <v>5.365046411934501</v>
+        <v>8.421960450460929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.12641384010234</v>
       </c>
       <c r="L13">
-        <v>8.335648302851773</v>
+        <v>6.118393983507014</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.69726360111794</v>
+        <v>7.277837636960588</v>
       </c>
       <c r="O13">
-        <v>19.63048425915501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.74410137127463</v>
+      </c>
+      <c r="Q13">
+        <v>13.98490617925095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.44809669127396</v>
+        <v>24.03493361378146</v>
       </c>
       <c r="C14">
-        <v>13.26951550320624</v>
+        <v>14.00958497501352</v>
       </c>
       <c r="D14">
-        <v>5.315014298333711</v>
+        <v>5.694858795864855</v>
       </c>
       <c r="E14">
-        <v>7.189276851671729</v>
+        <v>7.640879621875444</v>
       </c>
       <c r="F14">
-        <v>27.05149962452887</v>
+        <v>19.18622974377866</v>
       </c>
       <c r="G14">
-        <v>2.068784746491103</v>
+        <v>21.76755945538582</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.5124134350159</v>
       </c>
       <c r="J14">
-        <v>5.376030688785498</v>
+        <v>8.300451171364895</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.93806535853426</v>
       </c>
       <c r="L14">
-        <v>8.293724804980291</v>
+        <v>6.175238687404194</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.72967871847094</v>
+        <v>6.899017158425552</v>
       </c>
       <c r="O14">
-        <v>19.56253466985188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.84028960787436</v>
+      </c>
+      <c r="Q14">
+        <v>13.65419038548715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.29518825041061</v>
+        <v>23.85006414634548</v>
       </c>
       <c r="C15">
-        <v>13.21117511366591</v>
+        <v>13.98584632224915</v>
       </c>
       <c r="D15">
-        <v>5.303313599508808</v>
+        <v>5.645124666816638</v>
       </c>
       <c r="E15">
-        <v>7.190242852096151</v>
+        <v>7.62922764998486</v>
       </c>
       <c r="F15">
-        <v>26.9791254211368</v>
+        <v>19.02421210676399</v>
       </c>
       <c r="G15">
-        <v>2.069492874218898</v>
+        <v>21.53312033290763</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.725567921709049</v>
       </c>
       <c r="J15">
-        <v>5.382781428332263</v>
+        <v>8.272506038709244</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.9062008219282</v>
       </c>
       <c r="L15">
-        <v>8.268007022192728</v>
+        <v>6.190467698673451</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.74960223267136</v>
+        <v>6.801000289879533</v>
       </c>
       <c r="O15">
-        <v>19.52126862469157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.86177564233604</v>
+      </c>
+      <c r="Q15">
+        <v>13.5687043236784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40418784222924</v>
+        <v>23.10750189418589</v>
       </c>
       <c r="C16">
-        <v>12.8720589165345</v>
+        <v>13.63285633104889</v>
       </c>
       <c r="D16">
-        <v>5.23632398846912</v>
+        <v>5.605450362982792</v>
       </c>
       <c r="E16">
-        <v>7.196856381199869</v>
+        <v>7.628935309008929</v>
       </c>
       <c r="F16">
-        <v>26.56998101353824</v>
+        <v>18.91206259510845</v>
       </c>
       <c r="G16">
-        <v>2.073575877019564</v>
+        <v>21.26998179081921</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.457074618922812</v>
       </c>
       <c r="J16">
-        <v>5.421815206372569</v>
+        <v>8.294317020778633</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.04079932671979</v>
       </c>
       <c r="L16">
-        <v>8.120068667527853</v>
+        <v>6.164788066291273</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.86481772096091</v>
+        <v>6.745125351218053</v>
       </c>
       <c r="O16">
-        <v>19.29019809413436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.83655972760478</v>
+      </c>
+      <c r="Q16">
+        <v>13.53921829168106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.84436293288916</v>
+        <v>22.76940591386575</v>
       </c>
       <c r="C17">
-        <v>12.65976489928566</v>
+        <v>13.32995619476525</v>
       </c>
       <c r="D17">
-        <v>5.195297309995409</v>
+        <v>5.674384281646552</v>
       </c>
       <c r="E17">
-        <v>7.201858963286595</v>
+        <v>7.662452149955724</v>
       </c>
       <c r="F17">
-        <v>26.32400411184846</v>
+        <v>19.15381011949857</v>
       </c>
       <c r="G17">
-        <v>2.076103802668022</v>
+        <v>21.52361826917775</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.705123834505422</v>
       </c>
       <c r="J17">
-        <v>5.446074260403962</v>
+        <v>8.376339657597832</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.24243246414116</v>
       </c>
       <c r="L17">
-        <v>8.028846440691243</v>
+        <v>6.111078353398889</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.93642331958809</v>
+        <v>6.904633242362826</v>
       </c>
       <c r="O17">
-        <v>19.15323253959595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.767762786249</v>
+      </c>
+      <c r="Q17">
+        <v>13.69582366305927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.51747979207558</v>
+        <v>22.75273841548545</v>
       </c>
       <c r="C18">
-        <v>12.53610278312572</v>
+        <v>13.04104609217591</v>
       </c>
       <c r="D18">
-        <v>5.171730862384638</v>
+        <v>5.846704684897838</v>
       </c>
       <c r="E18">
-        <v>7.205077370447766</v>
+        <v>7.783841778166146</v>
       </c>
       <c r="F18">
-        <v>26.18437771423148</v>
+        <v>19.72077928689193</v>
       </c>
       <c r="G18">
-        <v>2.077566617483957</v>
+        <v>22.24004260953662</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.485729448469027</v>
       </c>
       <c r="J18">
-        <v>5.460143499861901</v>
+        <v>8.517205289341511</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.52576344428487</v>
       </c>
       <c r="L18">
-        <v>7.976219995583191</v>
+        <v>6.053553053695857</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.97794701195529</v>
+        <v>7.280123772717451</v>
       </c>
       <c r="O18">
-        <v>19.07619803589289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.65703570847498</v>
+      </c>
+      <c r="Q18">
+        <v>14.02488720009364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.40596104363445</v>
+        <v>22.99548646813049</v>
       </c>
       <c r="C19">
-        <v>12.49396653862301</v>
+        <v>12.79004097886305</v>
       </c>
       <c r="D19">
-        <v>5.163757534528341</v>
+        <v>6.092050346448347</v>
       </c>
       <c r="E19">
-        <v>7.206225048022658</v>
+        <v>8.043730071991511</v>
       </c>
       <c r="F19">
-        <v>26.13742164619092</v>
+        <v>20.50171148330547</v>
       </c>
       <c r="G19">
-        <v>2.078063445365601</v>
+        <v>23.26161089923531</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.121597168694691</v>
       </c>
       <c r="J19">
-        <v>5.464927134186087</v>
+        <v>8.69411175339199</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.8603435571831</v>
       </c>
       <c r="L19">
-        <v>7.958375840013056</v>
+        <v>6.036462771421324</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.99206413678001</v>
+        <v>7.814934561375033</v>
       </c>
       <c r="O19">
-        <v>19.050413569657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.52522379056774</v>
+      </c>
+      <c r="Q19">
+        <v>14.46497444412342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.90446241509611</v>
+        <v>23.93806829586102</v>
       </c>
       <c r="C20">
-        <v>12.68252522924599</v>
+        <v>12.66297574566372</v>
       </c>
       <c r="D20">
-        <v>5.199661587810899</v>
+        <v>6.526667987758753</v>
       </c>
       <c r="E20">
-        <v>7.201290989813789</v>
+        <v>8.642328513118629</v>
       </c>
       <c r="F20">
-        <v>26.34999717842339</v>
+        <v>21.84231681204011</v>
       </c>
       <c r="G20">
-        <v>2.075833794955917</v>
+        <v>25.07358385853445</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.137603759066877</v>
       </c>
       <c r="J20">
-        <v>5.443479852360012</v>
+        <v>8.966661424488674</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.3294728236405</v>
       </c>
       <c r="L20">
-        <v>8.038573857687986</v>
+        <v>6.122546142662659</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.92876575939929</v>
+        <v>8.749316458220507</v>
       </c>
       <c r="O20">
-        <v>19.1676318545479</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.33234623867158</v>
+      </c>
+      <c r="Q20">
+        <v>15.19782233096678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52116062369405</v>
+        <v>25.4198940408736</v>
       </c>
       <c r="C21">
-        <v>13.29740633988986</v>
+        <v>13.20825481800399</v>
       </c>
       <c r="D21">
-        <v>5.320626017600636</v>
+        <v>6.733871931723748</v>
       </c>
       <c r="E21">
-        <v>7.188832925712248</v>
+        <v>8.806702139948332</v>
       </c>
       <c r="F21">
-        <v>27.08630385439337</v>
+        <v>22.4779193985933</v>
       </c>
       <c r="G21">
-        <v>2.06844561059734</v>
+        <v>26.07366613846338</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.390150896606078</v>
       </c>
       <c r="J21">
-        <v>5.372799646043957</v>
+        <v>9.034376903242869</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.29891094065324</v>
       </c>
       <c r="L21">
-        <v>8.306046828338072</v>
+        <v>6.162423980670691</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.72014336168869</v>
+        <v>9.129262169015933</v>
       </c>
       <c r="O21">
-        <v>19.58241904284826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.28423041598996</v>
+      </c>
+      <c r="Q21">
+        <v>15.50554025525524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.53482894720941</v>
+        <v>26.32240388468565</v>
       </c>
       <c r="C22">
-        <v>13.68525593981966</v>
+        <v>13.56563258396809</v>
       </c>
       <c r="D22">
-        <v>5.39984451239248</v>
+        <v>6.849103439366259</v>
       </c>
       <c r="E22">
-        <v>7.183865248399041</v>
+        <v>8.881514067764854</v>
       </c>
       <c r="F22">
-        <v>27.58385359525973</v>
+        <v>22.84212914909448</v>
       </c>
       <c r="G22">
-        <v>2.063688640578094</v>
+        <v>26.65730611444314</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.547148402141798</v>
       </c>
       <c r="J22">
-        <v>5.327618178585279</v>
+        <v>9.070510501693935</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.26382778959601</v>
       </c>
       <c r="L22">
-        <v>8.479171728821822</v>
+        <v>6.181460934970291</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.58684928469058</v>
+        <v>9.331102374417489</v>
       </c>
       <c r="O22">
-        <v>19.86935712909624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.26430794344109</v>
+      </c>
+      <c r="Q22">
+        <v>15.68258248318277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.99771469838456</v>
+        <v>25.84458392964623</v>
       </c>
       <c r="C23">
-        <v>13.47954081283191</v>
+        <v>13.37611510392878</v>
       </c>
       <c r="D23">
-        <v>5.357554659125972</v>
+        <v>6.787760175156599</v>
       </c>
       <c r="E23">
-        <v>7.18621932779201</v>
+        <v>8.841638034096459</v>
       </c>
       <c r="F23">
-        <v>27.31681538627296</v>
+        <v>22.64725267492874</v>
       </c>
       <c r="G23">
-        <v>2.06622131854751</v>
+        <v>26.34547782844428</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.463657418307553</v>
       </c>
       <c r="J23">
-        <v>5.351640806694031</v>
+        <v>9.050805841755645</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.28166243228181</v>
       </c>
       <c r="L23">
-        <v>8.386938227676421</v>
+        <v>6.171334511774006</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.65770901342387</v>
+        <v>9.223891818325665</v>
       </c>
       <c r="O23">
-        <v>19.71474796138964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.27466004794245</v>
+      </c>
+      <c r="Q23">
+        <v>15.58738253143782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.87730712006479</v>
+        <v>23.94966639291104</v>
       </c>
       <c r="C24">
-        <v>12.67224030145146</v>
+        <v>12.63171573276851</v>
       </c>
       <c r="D24">
-        <v>5.197688433156989</v>
+        <v>6.552108431643659</v>
       </c>
       <c r="E24">
-        <v>7.201546705760959</v>
+        <v>8.689463146728826</v>
       </c>
       <c r="F24">
-        <v>26.33824013873543</v>
+        <v>21.9203500833124</v>
       </c>
       <c r="G24">
-        <v>2.075955835850598</v>
+        <v>25.17245360948904</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.140713435771129</v>
       </c>
       <c r="J24">
-        <v>5.444652402792793</v>
+        <v>8.985254279493718</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.36823078550267</v>
       </c>
       <c r="L24">
-        <v>8.034176654782103</v>
+        <v>6.132214530030127</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.93222663179501</v>
+        <v>8.80673226844166</v>
       </c>
       <c r="O24">
-        <v>19.16111660528489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.31993146201458</v>
+      </c>
+      <c r="Q24">
+        <v>15.24239159400885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45654436848581</v>
+        <v>21.72162559850185</v>
       </c>
       <c r="C25">
-        <v>11.74212972451962</v>
+        <v>11.77346119123484</v>
       </c>
       <c r="D25">
-        <v>5.026511087731881</v>
+        <v>6.29181748089885</v>
       </c>
       <c r="E25">
-        <v>7.231044479528348</v>
+        <v>8.522889393472441</v>
       </c>
       <c r="F25">
-        <v>25.35362068330559</v>
+        <v>21.1625644812882</v>
       </c>
       <c r="G25">
-        <v>2.086796745354202</v>
+        <v>23.92936108926324</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.777298080345368</v>
       </c>
       <c r="J25">
-        <v>5.549431180358753</v>
+        <v>8.933037838328909</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.49898073687047</v>
       </c>
       <c r="L25">
-        <v>7.64784753564713</v>
+        <v>6.088244148741593</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.24125706943089</v>
+        <v>8.334471823110144</v>
       </c>
       <c r="O25">
-        <v>18.63038394524917</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.38106900229063</v>
+      </c>
+      <c r="Q25">
+        <v>14.90332472834476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.92057925004359</v>
+        <v>19.7213986977051</v>
       </c>
       <c r="C2">
-        <v>11.09599899732186</v>
+        <v>11.25786383950917</v>
       </c>
       <c r="D2">
-        <v>6.095998135386259</v>
+        <v>6.099851280616201</v>
       </c>
       <c r="E2">
-        <v>8.398175324871426</v>
+        <v>8.312794043042253</v>
       </c>
       <c r="F2">
-        <v>20.62957007934414</v>
+        <v>20.28163839072501</v>
       </c>
       <c r="G2">
-        <v>23.03865896501049</v>
+        <v>21.83207473448002</v>
       </c>
       <c r="H2">
-        <v>1.626667724777028</v>
+        <v>1.600205120590719</v>
       </c>
       <c r="J2">
-        <v>8.909540920712564</v>
+        <v>9.296763510099719</v>
       </c>
       <c r="K2">
-        <v>13.62427017048639</v>
+        <v>13.28049109771953</v>
       </c>
       <c r="L2">
-        <v>6.054211722048461</v>
+        <v>11.66345458685299</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.004899351356444</v>
       </c>
       <c r="N2">
-        <v>7.969280228341511</v>
+        <v>6.006969701682102</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.43606153771343</v>
+        <v>8.090922808285079</v>
       </c>
       <c r="Q2">
-        <v>14.68165839770928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.45245989139042</v>
+      </c>
+      <c r="S2">
+        <v>14.42510784117035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.59872347184247</v>
+        <v>18.44235105033028</v>
       </c>
       <c r="C3">
-        <v>10.60989249836172</v>
+        <v>10.68164936097925</v>
       </c>
       <c r="D3">
-        <v>5.961304681301004</v>
+        <v>5.967204785355746</v>
       </c>
       <c r="E3">
-        <v>8.312388878547411</v>
+        <v>8.237136223849548</v>
       </c>
       <c r="F3">
-        <v>20.28506953895198</v>
+        <v>19.97111509173054</v>
       </c>
       <c r="G3">
-        <v>22.45333465960499</v>
+        <v>21.31253857174914</v>
       </c>
       <c r="H3">
-        <v>1.831056500469278</v>
+        <v>1.79021479030994</v>
       </c>
       <c r="J3">
-        <v>8.902444811550881</v>
+        <v>9.267010522270731</v>
       </c>
       <c r="K3">
-        <v>13.72579857706303</v>
+        <v>13.39442297208964</v>
       </c>
       <c r="L3">
-        <v>6.030051543525609</v>
+        <v>11.82515474724247</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.025643276263503</v>
       </c>
       <c r="N3">
-        <v>7.711947302308714</v>
+        <v>5.984472807900575</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.47927274891629</v>
+        <v>7.830617792369942</v>
       </c>
       <c r="Q3">
-        <v>14.54854138495173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.46968612466405</v>
+      </c>
+      <c r="S3">
+        <v>14.31346051122371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.73678007456815</v>
+        <v>17.60810906883097</v>
       </c>
       <c r="C4">
-        <v>10.29872860382586</v>
+        <v>10.31196555878118</v>
       </c>
       <c r="D4">
-        <v>5.877848379614426</v>
+        <v>5.88521098173376</v>
       </c>
       <c r="E4">
-        <v>8.259101686738086</v>
+        <v>8.19013524239522</v>
       </c>
       <c r="F4">
-        <v>20.08214235579621</v>
+        <v>19.78763734279434</v>
       </c>
       <c r="G4">
-        <v>22.10399230124147</v>
+        <v>21.00502948826563</v>
       </c>
       <c r="H4">
-        <v>1.961134944154786</v>
+        <v>1.911197129116469</v>
       </c>
       <c r="J4">
-        <v>8.902272471351196</v>
+        <v>9.250739531057501</v>
       </c>
       <c r="K4">
-        <v>13.79586761582427</v>
+        <v>13.47049930728107</v>
       </c>
       <c r="L4">
-        <v>6.014656885702204</v>
+        <v>11.9285424886925</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.062149939087739</v>
       </c>
       <c r="N4">
-        <v>7.549508885367848</v>
+        <v>5.970104158687728</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.50864856881208</v>
+        <v>7.666680635874458</v>
       </c>
       <c r="Q4">
-        <v>14.47508880040199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.48332631711796</v>
+      </c>
+      <c r="S4">
+        <v>14.25182328014232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.38343736168339</v>
+        <v>17.25580680968664</v>
       </c>
       <c r="C5">
-        <v>10.16884642728571</v>
+        <v>10.15746121108536</v>
       </c>
       <c r="D5">
-        <v>5.843685619948368</v>
+        <v>5.851697329314725</v>
       </c>
       <c r="E5">
-        <v>8.23723448966974</v>
+        <v>8.170845533242712</v>
       </c>
       <c r="F5">
-        <v>20.00165914498514</v>
+        <v>19.71470892351528</v>
       </c>
       <c r="G5">
-        <v>21.96431155714494</v>
+        <v>20.88270326902284</v>
       </c>
       <c r="H5">
-        <v>2.015310324457641</v>
+        <v>1.961596620293328</v>
       </c>
       <c r="J5">
-        <v>8.903229048285844</v>
+        <v>9.244603762816384</v>
       </c>
       <c r="K5">
-        <v>13.82629834043814</v>
+        <v>13.50299067593535</v>
       </c>
       <c r="L5">
-        <v>6.00823981006189</v>
+        <v>11.97171751556469</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.082870099128019</v>
       </c>
       <c r="N5">
-        <v>7.48226926940659</v>
+        <v>5.964106553875641</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.52132228698329</v>
+        <v>7.598920445671395</v>
       </c>
       <c r="Q5">
-        <v>14.4472115472506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.48964438263994</v>
+      </c>
+      <c r="S5">
+        <v>14.22841493089455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.32427236167812</v>
+        <v>17.19656056442149</v>
       </c>
       <c r="C6">
-        <v>10.14709714530324</v>
+        <v>10.13157763238945</v>
       </c>
       <c r="D6">
-        <v>5.838004717766291</v>
+        <v>5.846127458452347</v>
       </c>
       <c r="E6">
-        <v>8.233594329083418</v>
+        <v>8.167634284657556</v>
       </c>
       <c r="F6">
-        <v>19.98842983870225</v>
+        <v>19.70271124110202</v>
       </c>
       <c r="G6">
-        <v>21.94128380893854</v>
+        <v>20.86257408947329</v>
       </c>
       <c r="H6">
-        <v>2.024377039874679</v>
+        <v>1.970032120216024</v>
       </c>
       <c r="J6">
-        <v>8.90344915179959</v>
+        <v>9.243614584023586</v>
       </c>
       <c r="K6">
-        <v>13.83146280532941</v>
+        <v>13.50847440875295</v>
       </c>
       <c r="L6">
-        <v>6.007165505752656</v>
+        <v>11.97895007721789</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.086659007464831</v>
       </c>
       <c r="N6">
-        <v>7.471043281304937</v>
+        <v>5.963101989572791</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.52346885005467</v>
+        <v>7.587613709067758</v>
       </c>
       <c r="Q6">
-        <v>14.44270579303329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.49073906237813</v>
+      </c>
+      <c r="S6">
+        <v>14.2246303062593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.73192317125195</v>
+        <v>17.59779425453764</v>
       </c>
       <c r="C7">
-        <v>10.29698927966511</v>
+        <v>10.30256926543027</v>
       </c>
       <c r="D7">
-        <v>5.877388222252904</v>
+        <v>5.887276484148684</v>
       </c>
       <c r="E7">
-        <v>8.258807391530082</v>
+        <v>8.190571770076437</v>
       </c>
       <c r="F7">
-        <v>20.08104791725364</v>
+        <v>19.77554925185363</v>
       </c>
       <c r="G7">
-        <v>22.10209747371649</v>
+        <v>21.09441300162932</v>
       </c>
       <c r="H7">
-        <v>1.961860826183227</v>
+        <v>1.912448990978605</v>
       </c>
       <c r="J7">
-        <v>8.902281248492192</v>
+        <v>9.212553684115761</v>
       </c>
       <c r="K7">
-        <v>13.7962705014854</v>
+        <v>13.46647883014434</v>
       </c>
       <c r="L7">
-        <v>6.014570927908445</v>
+        <v>11.92490437143779</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.059915799523823</v>
       </c>
       <c r="N7">
-        <v>7.54860619999129</v>
+        <v>5.969839823408289</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.50881666103894</v>
+        <v>7.664986354820424</v>
       </c>
       <c r="Q7">
-        <v>14.47470455582624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.48478088380113</v>
+      </c>
+      <c r="S7">
+        <v>14.24256583125605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.4752152528152</v>
+        <v>19.27332794134632</v>
       </c>
       <c r="C8">
-        <v>10.93108522630906</v>
+        <v>11.03949674835979</v>
       </c>
       <c r="D8">
-        <v>6.049733437664896</v>
+        <v>6.062464962047985</v>
       </c>
       <c r="E8">
-        <v>8.368724815351475</v>
+        <v>8.289194075350686</v>
       </c>
       <c r="F8">
-        <v>20.5090333102639</v>
+        <v>20.13697143590337</v>
       </c>
       <c r="G8">
-        <v>22.83484627551327</v>
+        <v>21.94514377402464</v>
       </c>
       <c r="H8">
-        <v>1.696198947107225</v>
+        <v>1.66661433645828</v>
       </c>
       <c r="J8">
-        <v>8.906210442828529</v>
+        <v>9.161666271977754</v>
       </c>
       <c r="K8">
-        <v>13.65763175263342</v>
+        <v>13.30374522813398</v>
       </c>
       <c r="L8">
-        <v>6.045995874659781</v>
+        <v>11.705662318041</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.997091846736527</v>
       </c>
       <c r="N8">
-        <v>7.881512578675966</v>
+        <v>5.998767879039159</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.45036290005607</v>
+        <v>7.999572723388761</v>
       </c>
       <c r="Q8">
-        <v>14.63402582724906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.46259932577117</v>
+      </c>
+      <c r="S8">
+        <v>14.35582234035801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.49693529754105</v>
+        <v>22.19367501129501</v>
       </c>
       <c r="C9">
-        <v>12.06979669612626</v>
+        <v>12.38070937010421</v>
       </c>
       <c r="D9">
-        <v>6.380221312554616</v>
+        <v>6.390768725733173</v>
       </c>
       <c r="E9">
-        <v>8.579323346532931</v>
+        <v>8.47564607800658</v>
       </c>
       <c r="F9">
-        <v>21.41410577878328</v>
+        <v>20.94199403747512</v>
       </c>
       <c r="G9">
-        <v>24.34466545777666</v>
+        <v>23.36042392217902</v>
       </c>
       <c r="H9">
-        <v>1.901791706636058</v>
+        <v>1.896737130996801</v>
       </c>
       <c r="J9">
-        <v>8.948239804277677</v>
+        <v>9.214600832017737</v>
       </c>
       <c r="K9">
-        <v>13.45022587485321</v>
+        <v>13.05169983682132</v>
       </c>
       <c r="L9">
-        <v>6.103304511830192</v>
+        <v>11.32318437221218</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.075483566636951</v>
       </c>
       <c r="N9">
-        <v>8.496392714618436</v>
+        <v>6.051874903680861</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.35888576496703</v>
+        <v>8.622889188772072</v>
       </c>
       <c r="Q9">
-        <v>15.01315571851455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.43893339419077</v>
+      </c>
+      <c r="S9">
+        <v>14.6667703018452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.43301835622592</v>
+        <v>24.04068761931766</v>
       </c>
       <c r="C10">
-        <v>12.86580621161209</v>
+        <v>13.26851871289359</v>
       </c>
       <c r="D10">
-        <v>6.580443379031717</v>
+        <v>6.603265423944666</v>
       </c>
       <c r="E10">
-        <v>8.668403908812003</v>
+        <v>8.553586241350123</v>
       </c>
       <c r="F10">
-        <v>22.00488834311783</v>
+        <v>21.40126530830144</v>
       </c>
       <c r="G10">
-        <v>25.34534757037565</v>
+        <v>24.77715107726136</v>
       </c>
       <c r="H10">
-        <v>2.222191704488358</v>
+        <v>2.191389459155609</v>
       </c>
       <c r="J10">
-        <v>8.976785441951318</v>
+        <v>9.03431781115829</v>
       </c>
       <c r="K10">
-        <v>13.29343104309969</v>
+        <v>12.83338118898805</v>
       </c>
       <c r="L10">
-        <v>6.130095667085053</v>
+        <v>11.01504457376951</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.192427007325605</v>
       </c>
       <c r="N10">
-        <v>8.84217277964461</v>
+        <v>6.076568273318378</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.32355648842455</v>
+        <v>8.97049270470333</v>
       </c>
       <c r="Q10">
-        <v>15.27120480018035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.46352646573488</v>
+      </c>
+      <c r="S10">
+        <v>14.82413013178323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.87588709245135</v>
+        <v>24.43553685003554</v>
       </c>
       <c r="C11">
-        <v>13.45203747465447</v>
+        <v>13.78527077713411</v>
       </c>
       <c r="D11">
-        <v>6.359421976201121</v>
+        <v>6.405877867650989</v>
       </c>
       <c r="E11">
-        <v>8.227883737001703</v>
+        <v>8.128930995598445</v>
       </c>
       <c r="F11">
-        <v>21.31825222050718</v>
+        <v>20.61085673720826</v>
       </c>
       <c r="G11">
-        <v>24.55911906980611</v>
+        <v>25.05226114037768</v>
       </c>
       <c r="H11">
-        <v>3.056287661205232</v>
+        <v>3.025611491470525</v>
       </c>
       <c r="J11">
-        <v>8.7779908616938</v>
+        <v>8.454139906582338</v>
       </c>
       <c r="K11">
-        <v>12.81442591966602</v>
+        <v>12.34095110660663</v>
       </c>
       <c r="L11">
-        <v>6.071788317887307</v>
+        <v>10.62121244040575</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.899027212269914</v>
       </c>
       <c r="N11">
-        <v>8.316391711208263</v>
+        <v>6.031096860617769</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.46713588276083</v>
+        <v>8.426343100797299</v>
       </c>
       <c r="Q11">
-        <v>14.85508314929568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.648817514842</v>
+      </c>
+      <c r="S11">
+        <v>14.32115945403474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.85323542762483</v>
+        <v>24.40575160714812</v>
       </c>
       <c r="C12">
-        <v>13.78866123076733</v>
+        <v>14.06404451407612</v>
       </c>
       <c r="D12">
-        <v>6.130691005547858</v>
+        <v>6.18493237793741</v>
       </c>
       <c r="E12">
-        <v>7.926599915485441</v>
+        <v>7.838236534539651</v>
       </c>
       <c r="F12">
-        <v>20.59510257937825</v>
+        <v>19.86729524533694</v>
       </c>
       <c r="G12">
-        <v>23.65902977647963</v>
+        <v>24.67463360769776</v>
       </c>
       <c r="H12">
-        <v>4.276709182194802</v>
+        <v>4.253580342658578</v>
       </c>
       <c r="J12">
-        <v>8.598398437456375</v>
+        <v>8.146648352924727</v>
       </c>
       <c r="K12">
-        <v>12.44026491161114</v>
+        <v>11.98932684084227</v>
       </c>
       <c r="L12">
-        <v>6.073304689338467</v>
+        <v>10.37646638082937</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.62640567866281</v>
       </c>
       <c r="N12">
-        <v>7.808079786814318</v>
+        <v>6.043505719675319</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.60576774894566</v>
+        <v>7.904059768841434</v>
       </c>
       <c r="Q12">
-        <v>14.43616891713587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.80369027801853</v>
+      </c>
+      <c r="S12">
+        <v>13.88344413140418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.47099468128119</v>
+        <v>24.05803083741629</v>
       </c>
       <c r="C13">
-        <v>13.96113925870695</v>
+        <v>14.1995404597618</v>
       </c>
       <c r="D13">
-        <v>5.88006246715013</v>
+        <v>5.925503764391545</v>
       </c>
       <c r="E13">
-        <v>7.722376401561291</v>
+        <v>7.642724730371045</v>
       </c>
       <c r="F13">
-        <v>19.78957257539144</v>
+        <v>19.12901174454496</v>
       </c>
       <c r="G13">
-        <v>22.59475796815562</v>
+        <v>23.54310360944882</v>
       </c>
       <c r="H13">
-        <v>5.575868248198995</v>
+        <v>5.560191088737835</v>
       </c>
       <c r="J13">
-        <v>8.421960450460929</v>
+        <v>8.065878882808903</v>
       </c>
       <c r="K13">
-        <v>12.12641384010234</v>
+        <v>11.73357830112602</v>
       </c>
       <c r="L13">
-        <v>6.118393983507014</v>
+        <v>10.22372118079494</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.36732697274706</v>
       </c>
       <c r="N13">
-        <v>7.277837636960588</v>
+        <v>6.098305071342196</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.74410137127463</v>
+        <v>7.363811319758061</v>
       </c>
       <c r="Q13">
-        <v>13.98490617925095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.93297838991418</v>
+      </c>
+      <c r="S13">
+        <v>13.48510682584634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.03493361378146</v>
+        <v>23.66504772900426</v>
       </c>
       <c r="C14">
-        <v>14.00958497501352</v>
+        <v>14.2308889898136</v>
       </c>
       <c r="D14">
-        <v>5.694858795864855</v>
+        <v>5.727611914589627</v>
       </c>
       <c r="E14">
-        <v>7.640879621875444</v>
+        <v>7.568195141158411</v>
       </c>
       <c r="F14">
-        <v>19.18622974377866</v>
+        <v>18.61010713404277</v>
       </c>
       <c r="G14">
-        <v>21.76755945538582</v>
+        <v>22.41072820493158</v>
       </c>
       <c r="H14">
-        <v>6.5124134350159</v>
+        <v>6.501257129298193</v>
       </c>
       <c r="J14">
-        <v>8.300451171364895</v>
+        <v>8.098025399753253</v>
       </c>
       <c r="K14">
-        <v>11.93806535853426</v>
+        <v>11.59827904981748</v>
       </c>
       <c r="L14">
-        <v>6.175238687404194</v>
+        <v>10.15380605109571</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.196908679862443</v>
       </c>
       <c r="N14">
-        <v>6.899017158425552</v>
+        <v>6.16101099549267</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.84028960787436</v>
+        <v>6.979641298844713</v>
       </c>
       <c r="Q14">
-        <v>13.65419038548715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.01095009959166</v>
+      </c>
+      <c r="S14">
+        <v>13.22161813411633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.85006414634548</v>
+        <v>23.49894857675577</v>
       </c>
       <c r="C15">
-        <v>13.98584632224915</v>
+        <v>14.20658814854322</v>
       </c>
       <c r="D15">
-        <v>5.645124666816638</v>
+        <v>5.672197181019225</v>
       </c>
       <c r="E15">
-        <v>7.62922764998486</v>
+        <v>7.558887653712426</v>
       </c>
       <c r="F15">
-        <v>19.02421210676399</v>
+        <v>18.48432403805223</v>
       </c>
       <c r="G15">
-        <v>21.53312033290763</v>
+        <v>21.99253758449272</v>
       </c>
       <c r="H15">
-        <v>6.725567921709049</v>
+        <v>6.715801764172072</v>
       </c>
       <c r="J15">
-        <v>8.272506038709244</v>
+        <v>8.144782846545644</v>
       </c>
       <c r="K15">
-        <v>11.9062008219282</v>
+        <v>11.58429619824864</v>
       </c>
       <c r="L15">
-        <v>6.190467698673451</v>
+        <v>10.15233587735629</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.160570356264592</v>
       </c>
       <c r="N15">
-        <v>6.801000289879533</v>
+        <v>6.177493696241043</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.86177564233604</v>
+        <v>6.8811009832046</v>
       </c>
       <c r="Q15">
-        <v>13.5687043236784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.02292997848676</v>
+      </c>
+      <c r="S15">
+        <v>13.16512329452587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.10750189418589</v>
+        <v>22.82702246977317</v>
       </c>
       <c r="C16">
-        <v>13.63285633104889</v>
+        <v>13.87873185905115</v>
       </c>
       <c r="D16">
-        <v>5.605450362982792</v>
+        <v>5.6113633658467</v>
       </c>
       <c r="E16">
-        <v>7.628935309008929</v>
+        <v>7.563130452210655</v>
       </c>
       <c r="F16">
-        <v>18.91206259510845</v>
+        <v>18.50245335435821</v>
       </c>
       <c r="G16">
-        <v>21.26998179081921</v>
+        <v>20.83471699331556</v>
       </c>
       <c r="H16">
-        <v>6.457074618922812</v>
+        <v>6.451687301415533</v>
       </c>
       <c r="J16">
-        <v>8.294317020778633</v>
+        <v>8.49186176293018</v>
       </c>
       <c r="K16">
-        <v>12.04079932671979</v>
+        <v>11.76118824844366</v>
       </c>
       <c r="L16">
-        <v>6.164788066291273</v>
+        <v>10.30272579097548</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.207595498555277</v>
       </c>
       <c r="N16">
-        <v>6.745125351218053</v>
+        <v>6.150973177636493</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.83655972760478</v>
+        <v>6.832232631066919</v>
       </c>
       <c r="Q16">
-        <v>13.53921829168106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.95489723280074</v>
+      </c>
+      <c r="S16">
+        <v>13.2403320622108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.76940591386575</v>
+        <v>22.51321321091823</v>
       </c>
       <c r="C17">
-        <v>13.32995619476525</v>
+        <v>13.59430167442103</v>
       </c>
       <c r="D17">
-        <v>5.674384281646552</v>
+        <v>5.673152078108099</v>
       </c>
       <c r="E17">
-        <v>7.662452149955724</v>
+        <v>7.594175373788227</v>
       </c>
       <c r="F17">
-        <v>19.15381011949857</v>
+        <v>18.78494057582581</v>
       </c>
       <c r="G17">
-        <v>21.52361826917775</v>
+        <v>20.69286019738347</v>
       </c>
       <c r="H17">
-        <v>5.705123834505422</v>
+        <v>5.701481068554378</v>
       </c>
       <c r="J17">
-        <v>8.376339657597832</v>
+        <v>8.710540132002313</v>
       </c>
       <c r="K17">
-        <v>12.24243246414116</v>
+        <v>11.96471914319472</v>
       </c>
       <c r="L17">
-        <v>6.111078353398889</v>
+        <v>10.46119647208242</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.326091820181448</v>
       </c>
       <c r="N17">
-        <v>6.904633242362826</v>
+        <v>6.093540739103205</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.767762786249</v>
+        <v>6.999152652851855</v>
       </c>
       <c r="Q17">
-        <v>13.69582366305927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.86711916597635</v>
+      </c>
+      <c r="S17">
+        <v>13.42982381452832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.75273841548545</v>
+        <v>22.49217429974615</v>
       </c>
       <c r="C18">
-        <v>13.04104609217591</v>
+        <v>13.33338462643807</v>
       </c>
       <c r="D18">
-        <v>5.846704684897838</v>
+        <v>5.844442847859992</v>
       </c>
       <c r="E18">
-        <v>7.783841778166146</v>
+        <v>7.706326885944044</v>
       </c>
       <c r="F18">
-        <v>19.72077928689193</v>
+        <v>19.34362174456351</v>
       </c>
       <c r="G18">
-        <v>22.24004260953662</v>
+        <v>21.21449141248224</v>
       </c>
       <c r="H18">
-        <v>4.485729448469027</v>
+        <v>4.482009842199099</v>
       </c>
       <c r="J18">
-        <v>8.517205289341511</v>
+        <v>8.89864791080854</v>
       </c>
       <c r="K18">
-        <v>12.52576344428487</v>
+        <v>12.22493304439768</v>
       </c>
       <c r="L18">
-        <v>6.053553053695857</v>
+        <v>10.65451619991169</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.519764495710546</v>
       </c>
       <c r="N18">
-        <v>7.280123772717451</v>
+        <v>6.029054338917452</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.65703570847498</v>
+        <v>7.384222212021784</v>
       </c>
       <c r="Q18">
-        <v>14.02488720009364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.75042816326195</v>
+      </c>
+      <c r="S18">
+        <v>13.75342832357336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.99548646813049</v>
+        <v>22.71194564614231</v>
       </c>
       <c r="C19">
-        <v>12.79004097886305</v>
+        <v>13.12100090354093</v>
       </c>
       <c r="D19">
-        <v>6.092050346448347</v>
+        <v>6.09189637149377</v>
       </c>
       <c r="E19">
-        <v>8.043730071991511</v>
+        <v>7.952316256653235</v>
       </c>
       <c r="F19">
-        <v>20.50171148330547</v>
+        <v>20.08677983439681</v>
       </c>
       <c r="G19">
-        <v>23.26161089923531</v>
+        <v>22.14084235889782</v>
       </c>
       <c r="H19">
-        <v>3.121597168694691</v>
+        <v>3.115089992471496</v>
       </c>
       <c r="J19">
-        <v>8.69411175339199</v>
+        <v>9.074302037816889</v>
       </c>
       <c r="K19">
-        <v>12.8603435571831</v>
+        <v>12.52035278360633</v>
       </c>
       <c r="L19">
-        <v>6.036462771421324</v>
+        <v>10.86740268842408</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.764924683976354</v>
       </c>
       <c r="N19">
-        <v>7.814934561375033</v>
+        <v>6.002004377059307</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.52522379056774</v>
+        <v>7.930008060317636</v>
       </c>
       <c r="Q19">
-        <v>14.46497444412342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.6207068982442</v>
+      </c>
+      <c r="S19">
+        <v>14.16530645583484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.93806829586102</v>
+        <v>23.58414273902653</v>
       </c>
       <c r="C20">
-        <v>12.66297574566372</v>
+        <v>13.06399651983171</v>
       </c>
       <c r="D20">
-        <v>6.526667987758753</v>
+        <v>6.537860460489508</v>
       </c>
       <c r="E20">
-        <v>8.642328513118629</v>
+        <v>8.527864734695918</v>
       </c>
       <c r="F20">
-        <v>21.84231681204011</v>
+        <v>21.31039670449044</v>
       </c>
       <c r="G20">
-        <v>25.07358385853445</v>
+        <v>24.1059475366543</v>
       </c>
       <c r="H20">
-        <v>2.137603759066877</v>
+        <v>2.115056940415948</v>
       </c>
       <c r="J20">
-        <v>8.966661424488674</v>
+        <v>9.207650345889435</v>
       </c>
       <c r="K20">
-        <v>13.3294728236405</v>
+        <v>12.90235639047225</v>
       </c>
       <c r="L20">
-        <v>6.122546142662659</v>
+        <v>11.10367566362119</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.166921963264315</v>
       </c>
       <c r="N20">
-        <v>8.749316458220507</v>
+        <v>6.070104304821154</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.33234623867158</v>
+        <v>8.879446162278128</v>
       </c>
       <c r="Q20">
-        <v>15.19782233096678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.45054791833665</v>
+      </c>
+      <c r="S20">
+        <v>14.80827369376014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.4198940408736</v>
+        <v>24.91596922835151</v>
       </c>
       <c r="C21">
-        <v>13.20825481800399</v>
+        <v>13.57280625409129</v>
       </c>
       <c r="D21">
-        <v>6.733871931723748</v>
+        <v>6.799687611543308</v>
       </c>
       <c r="E21">
-        <v>8.806702139948332</v>
+        <v>8.695963807452406</v>
       </c>
       <c r="F21">
-        <v>22.4779193985933</v>
+        <v>21.64172853258491</v>
       </c>
       <c r="G21">
-        <v>26.07366613846338</v>
+        <v>26.92854823595394</v>
       </c>
       <c r="H21">
-        <v>2.390150896606078</v>
+        <v>2.339449311696195</v>
       </c>
       <c r="J21">
-        <v>9.034376903242869</v>
+        <v>8.474643667363019</v>
       </c>
       <c r="K21">
-        <v>13.29891094065324</v>
+        <v>12.72610342948111</v>
       </c>
       <c r="L21">
-        <v>6.162423980670691</v>
+        <v>10.86326670751216</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.272224017765341</v>
       </c>
       <c r="N21">
-        <v>9.129262169015933</v>
+        <v>6.10340942873126</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.28423041598996</v>
+        <v>9.250834877156743</v>
       </c>
       <c r="Q21">
-        <v>15.50554025525524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.48137825056994</v>
+      </c>
+      <c r="S21">
+        <v>14.86835822622136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.32240388468565</v>
+        <v>25.72105349178431</v>
       </c>
       <c r="C22">
-        <v>13.56563258396809</v>
+        <v>13.89642227559903</v>
       </c>
       <c r="D22">
-        <v>6.849103439366259</v>
+        <v>6.954165680278853</v>
       </c>
       <c r="E22">
-        <v>8.881514067764854</v>
+        <v>8.776576872646602</v>
       </c>
       <c r="F22">
-        <v>22.84212914909448</v>
+        <v>21.79606393778759</v>
       </c>
       <c r="G22">
-        <v>26.65730611444314</v>
+        <v>28.79872600078289</v>
       </c>
       <c r="H22">
-        <v>2.547148402141798</v>
+        <v>2.478704020562514</v>
       </c>
       <c r="J22">
-        <v>9.070510501693935</v>
+        <v>8.000989971341781</v>
       </c>
       <c r="K22">
-        <v>13.26382778959601</v>
+        <v>12.58839999438337</v>
       </c>
       <c r="L22">
-        <v>6.181460934970291</v>
+        <v>10.69377768140073</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.332224682746499</v>
       </c>
       <c r="N22">
-        <v>9.331102374417489</v>
+        <v>6.119224965130741</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.26430794344109</v>
+        <v>9.445783788925873</v>
       </c>
       <c r="Q22">
-        <v>15.68258248318277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.51700169726878</v>
+      </c>
+      <c r="S22">
+        <v>14.87214094332594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.84458392964623</v>
+        <v>25.30562279095497</v>
       </c>
       <c r="C23">
-        <v>13.37611510392878</v>
+        <v>13.74003725271758</v>
       </c>
       <c r="D23">
-        <v>6.787760175156599</v>
+        <v>6.865556972770921</v>
       </c>
       <c r="E23">
-        <v>8.841638034096459</v>
+        <v>8.731264982216494</v>
       </c>
       <c r="F23">
-        <v>22.64725267492874</v>
+        <v>21.7401156841276</v>
       </c>
       <c r="G23">
-        <v>26.34547782844428</v>
+        <v>27.59004349111065</v>
       </c>
       <c r="H23">
-        <v>2.463657418307553</v>
+        <v>2.405595878973154</v>
       </c>
       <c r="J23">
-        <v>9.050805841755645</v>
+        <v>8.325140082249112</v>
       </c>
       <c r="K23">
-        <v>13.28166243228181</v>
+        <v>12.6733950937702</v>
       </c>
       <c r="L23">
-        <v>6.171334511774006</v>
+        <v>10.79115443808764</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.309842446660374</v>
       </c>
       <c r="N23">
-        <v>9.223891818325665</v>
+        <v>6.111063187221358</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.27466004794245</v>
+        <v>9.343943201547059</v>
       </c>
       <c r="Q23">
-        <v>15.58738253143782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.49302302337551</v>
+      </c>
+      <c r="S23">
+        <v>14.89216976516229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.94966639291104</v>
+        <v>23.59440749238109</v>
       </c>
       <c r="C24">
-        <v>12.63171573276851</v>
+        <v>13.0365936445894</v>
       </c>
       <c r="D24">
-        <v>6.552108431643659</v>
+        <v>6.563194797284669</v>
       </c>
       <c r="E24">
-        <v>8.689463146728826</v>
+        <v>8.573563431356773</v>
       </c>
       <c r="F24">
-        <v>21.9203500833124</v>
+        <v>21.38640446567641</v>
       </c>
       <c r="G24">
-        <v>25.17245360948904</v>
+        <v>24.183461371821</v>
       </c>
       <c r="H24">
-        <v>2.140713435771129</v>
+        <v>2.118075385074794</v>
       </c>
       <c r="J24">
-        <v>8.985254279493718</v>
+        <v>9.231151853097733</v>
       </c>
       <c r="K24">
-        <v>13.36823078550267</v>
+        <v>12.93758353221351</v>
       </c>
       <c r="L24">
-        <v>6.132214530030127</v>
+        <v>11.13028132806624</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.193673238325836</v>
       </c>
       <c r="N24">
-        <v>8.80673226844166</v>
+        <v>6.078482324249096</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.31993146201458</v>
+        <v>8.938035815997061</v>
       </c>
       <c r="Q24">
-        <v>15.24239159400885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.4375142442986</v>
+      </c>
+      <c r="S24">
+        <v>14.85141020905525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.72162559850185</v>
+        <v>21.45134090786665</v>
       </c>
       <c r="C25">
-        <v>11.77346119123484</v>
+        <v>12.04169155425724</v>
       </c>
       <c r="D25">
-        <v>6.29181748089885</v>
+        <v>6.299383027604917</v>
       </c>
       <c r="E25">
-        <v>8.522889393472441</v>
+        <v>8.424636583388658</v>
       </c>
       <c r="F25">
-        <v>21.1625644812882</v>
+        <v>20.73353453612733</v>
       </c>
       <c r="G25">
-        <v>23.92936108926324</v>
+        <v>22.84840535450076</v>
       </c>
       <c r="H25">
-        <v>1.777298080345368</v>
+        <v>1.781908901866197</v>
       </c>
       <c r="J25">
-        <v>8.933037838328909</v>
+        <v>9.250924158454366</v>
       </c>
       <c r="K25">
-        <v>13.49898073687047</v>
+        <v>13.12040495907533</v>
       </c>
       <c r="L25">
-        <v>6.088244148741593</v>
+        <v>11.42815033324284</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.038281034784371</v>
       </c>
       <c r="N25">
-        <v>8.334471823110144</v>
+        <v>6.038164714058767</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.38106900229063</v>
+        <v>8.459499870197339</v>
       </c>
       <c r="Q25">
-        <v>14.90332472834476</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.44039692553203</v>
+      </c>
+      <c r="S25">
+        <v>14.58883689212353</v>
       </c>
     </row>
   </sheetData>
